--- a/Shared/Celltype_key.xlsx
+++ b/Shared/Celltype_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhroe\Desktop\Thesis\Clean\CellularCommunityAnalysisNSCLC\Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0760BC96-A484-423C-A5D8-329DB6751587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388788F7-EAB4-4988-B8E9-5ACE8CD9D118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,8 +425,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +512,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -533,12 +546,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,7 +928,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,13 +961,13 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>100</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -974,7 +987,7 @@
       <c r="D3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>114</v>
       </c>
     </row>
@@ -988,7 +1001,7 @@
       <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E4" t="s">
@@ -1005,10 +1018,10 @@
       <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1022,7 +1035,7 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>104</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1030,7 +1043,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1039,7 +1052,7 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>105</v>
       </c>
       <c r="E7" t="s">
@@ -1056,7 +1069,7 @@
       <c r="C8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1165,7 +1178,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B18" s="9" t="s">
